--- a/TCSiON_PROJECT/target/classes/TestDataStage3.xlsx
+++ b/TCSiON_PROJECT/target/classes/TestDataStage3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="3120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>TestCase</t>
   </si>
@@ -38,48 +38,9 @@
     <t>TC_005</t>
   </si>
   <si>
-    <t>UPDATE ADDRESS</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
     <t>Email ID</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>House number 5, LNCPE ROAD</t>
-  </si>
-  <si>
-    <t>Kazhakootam</t>
-  </si>
-  <si>
-    <t>Postal code</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Trivandrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country </t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
     <t>demoadmin</t>
   </si>
   <si>
@@ -99,6 +60,12 @@
   </si>
   <si>
     <t>Confirmed</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
@@ -462,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -492,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,68 +508,28 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>695584</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
